--- a/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
+++ b/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
@@ -26,7 +26,7 @@
     <definedName name="_Toc220775286" localSheetId="0">Sheet1!$B$80</definedName>
     <definedName name="_Toc220775287" localSheetId="0">Sheet1!$B$90</definedName>
     <definedName name="_Toc220775288" localSheetId="0">Sheet1!$B$95</definedName>
-    <definedName name="_Toc220775289" localSheetId="0">Sheet1!$B$104</definedName>
+    <definedName name="_Toc220775289" localSheetId="0">Sheet1!$B$106</definedName>
     <definedName name="_Toc290939942" localSheetId="0">Sheet1!$A$2</definedName>
     <definedName name="_Toc439994688" localSheetId="0">Sheet1!$B$2</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -206,6 +206,159 @@
   </si>
   <si>
     <t>15.8 Generar reporte de rendimiento por asignatura y curso.</t>
+  </si>
+  <si>
+    <t>15.9 Generar reporte estadístico de uso sobre la cantidad de accesos a la autogestión por mes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.10 Generar reporte estadístico sobre las encuestas de los alumnos y de los padres. </t>
+  </si>
+  <si>
+    <t>11.1 Generar mensaje.</t>
+  </si>
+  <si>
+    <t>12.3 Generar reporte estadísticos de desempeño de alumnos en diferentes materias en el período respecto a años anteriores.</t>
+  </si>
+  <si>
+    <t>Comunicación</t>
+  </si>
+  <si>
+    <t>11.2 Generar mensaje multiusuario</t>
+  </si>
+  <si>
+    <t>11.3 Consultar mensajes</t>
+  </si>
+  <si>
+    <t>Gestion de foro</t>
+  </si>
+  <si>
+    <t>2.1 Consultar foro</t>
+  </si>
+  <si>
+    <t>2.2 Generar mensaje en foro</t>
+  </si>
+  <si>
+    <t>Gestión Agenda de Actividades</t>
+  </si>
+  <si>
+    <t>3.1 Registrar actividades de curso.</t>
+  </si>
+  <si>
+    <t>3.2 Registrar actividades institucionales.</t>
+  </si>
+  <si>
+    <t>3.3 Registrar evento.</t>
+  </si>
+  <si>
+    <t>3.4 Registrar citaciones.</t>
+  </si>
+  <si>
+    <t>3.5 Registrar Reuniones.</t>
+  </si>
+  <si>
+    <t>3.6 Consulta de Agenda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1 Enviar notificaciones de sanciones e inasistencia vía mensaje de texto a los padres/tutores. </t>
+  </si>
+  <si>
+    <t>10.2 Enviar notificaciones de sanciones e inasistencia vía email a los padres/tutores.</t>
+  </si>
+  <si>
+    <t>Gestión de Usuarios y Perfiles</t>
+  </si>
+  <si>
+    <t>l de usuario.</t>
+  </si>
+  <si>
+    <t>20.1 Registrar Perfiles.</t>
+  </si>
+  <si>
+    <t>20.2 Registrar usuario.</t>
+  </si>
+  <si>
+    <t>20.3 Asignar perfil.</t>
+  </si>
+  <si>
+    <t>20.4 Actualizar usuario.</t>
+  </si>
+  <si>
+    <t>20.5 Registrar email</t>
+  </si>
+  <si>
+    <t>21.1 Registro de logueo E/S al sistema.</t>
+  </si>
+  <si>
+    <t>21.3 Generar estadística de utilización de sistema según perfiles.</t>
+  </si>
+  <si>
+    <t>21.2 Generar estadística de acceso al sistema.</t>
+  </si>
+  <si>
+    <t>26- Conectividad</t>
+  </si>
+  <si>
+    <t>Importación de datos</t>
+  </si>
+  <si>
+    <t>26.1 Registrar escala de calificaciones.</t>
+  </si>
+  <si>
+    <t>26.2 Registrar Alumnos.</t>
+  </si>
+  <si>
+    <t>26.3 Registrar personal de la institución.</t>
+  </si>
+  <si>
+    <t>26,4 Registrar asignaturas.</t>
+  </si>
+  <si>
+    <t>26.5 Registrar sanciones.</t>
+  </si>
+  <si>
+    <t>26.6 Registrar calificaciones.</t>
+  </si>
+  <si>
+    <t>26.7 Registrar inasistencias de alumnos.</t>
+  </si>
+  <si>
+    <t>26.8 Registrar inasistencias de profesores.</t>
+  </si>
+  <si>
+    <t>1.1 Registrar novedades institucionales.</t>
+  </si>
+  <si>
+    <t>1.2 Actualizar novedades institucionales.</t>
+  </si>
+  <si>
+    <t>Novedades Aulicas</t>
+  </si>
+  <si>
+    <t>4.1 Registrar novedades en aula.</t>
+  </si>
+  <si>
+    <t>4.2 Consultar novedades en aula.</t>
+  </si>
+  <si>
+    <t>7.1 Crear encuestas parametrizables de alumnos hacia docentes.</t>
+  </si>
+  <si>
+    <t>7.2 Crear encuestas parametrizables de padres hacia la institución.</t>
+  </si>
+  <si>
+    <t>7.3 Registrar escala de evaluación.</t>
+  </si>
+  <si>
+    <t>7.4 Actualizar encuestas de alumnos hacia docentes.</t>
+  </si>
+  <si>
+    <t>7.5 Actualizar encuestas de padres hacia la institución.</t>
+  </si>
+  <si>
+    <t>7.6 Completar Encuesta</t>
+  </si>
+  <si>
+    <t>Encuestas</t>
   </si>
 </sst>
 </file>
@@ -329,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,74 +523,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -1050,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1210,9 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1129,7 +1224,9 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1202,8 +1299,12 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1214,8 +1315,12 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="C11" s="13"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -1276,8 +1381,12 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="C16" s="13"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1288,8 +1397,12 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1300,8 +1413,12 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1312,8 +1429,12 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1324,8 +1445,12 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1336,8 +1461,12 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1386,8 +1515,12 @@
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1398,8 +1531,12 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -1596,8 +1733,12 @@
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="C42" s="14"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1608,8 +1749,12 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="C43" s="14"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1620,8 +1765,12 @@
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="C44" s="14"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1632,8 +1781,12 @@
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="C45" s="14"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1644,8 +1797,12 @@
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="C46" s="14"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1655,9 +1812,13 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C47" s="14"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1830,8 +1991,12 @@
       <c r="J60" s="10"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="C61" s="14"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -1842,8 +2007,12 @@
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="C62" s="14"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1904,8 +2073,12 @@
       <c r="J66" s="10"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C67" s="14"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -1916,8 +2089,12 @@
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C68" s="14"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -1928,8 +2105,12 @@
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="C69" s="14"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2034,8 +2215,12 @@
       <c r="J76" s="16"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="A77" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C77" s="14"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2348,7 +2533,9 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
+      <c r="A101" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="B101" s="9" t="s">
         <v>54</v>
       </c>
@@ -2362,7 +2549,9 @@
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
+      <c r="A102" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="B102" s="9" t="s">
         <v>55</v>
       </c>
@@ -2376,7 +2565,9 @@
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
+      <c r="A103" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="B103" s="9" t="s">
         <v>56</v>
       </c>
@@ -2389,23 +2580,29 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
+    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
     </row>
     <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C105" s="14"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -2415,17 +2612,19 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
+    <row r="106" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
@@ -2511,27 +2710,21 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
+    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
     </row>
     <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
-      <c r="B115" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="B115" s="9"/>
       <c r="C115" s="14"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -2541,24 +2734,26 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
+    <row r="116" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="5"/>
@@ -2571,7 +2766,9 @@
     </row>
     <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
+      <c r="B118" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C118" s="14"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -2583,7 +2780,9 @@
     </row>
     <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
+      <c r="B119" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C119" s="14"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -2641,25 +2840,21 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
+    <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
     </row>
     <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
-      <c r="B125" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="B125" s="9"/>
       <c r="C125" s="14"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -2669,21 +2864,25 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
+    <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
+      <c r="B127" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C127" s="14"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -2765,25 +2964,21 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C134" s="12"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
+    <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
     </row>
     <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
-      <c r="B135" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="B135" s="9"/>
       <c r="C135" s="14"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -2793,24 +2988,24 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
-      <c r="B136" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C136" s="14"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
+    <row r="136" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
     </row>
     <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C137" s="14"/>
       <c r="D137" s="5"/>
@@ -2823,7 +3018,9 @@
     </row>
     <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
+      <c r="B138" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="C138" s="14"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -2835,7 +3032,9 @@
     </row>
     <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
+      <c r="B139" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C139" s="14"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -2893,21 +3092,17 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C144" s="12"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
+    <row r="144" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
@@ -2921,21 +3116,29 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
+    <row r="146" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
+      <c r="A147" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="C147" s="14"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -2946,8 +3149,12 @@
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
+      <c r="A148" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C148" s="14"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -2958,8 +3165,12 @@
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
+      <c r="A149" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="C149" s="14"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -2970,8 +3181,12 @@
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
+      <c r="A150" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="C150" s="14"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -2982,8 +3197,12 @@
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
+      <c r="A151" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="C151" s="14"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -3017,21 +3236,19 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" s="12"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
+    <row r="154" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
     </row>
     <row r="155" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
@@ -3045,21 +3262,29 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
+    <row r="156" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
+      <c r="A157" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="C157" s="14"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -3070,8 +3295,12 @@
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
+      <c r="A158" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="C158" s="14"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -3082,8 +3311,12 @@
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
+      <c r="A159" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="C159" s="14"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -3141,21 +3374,17 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C164" s="12"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
+    <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
@@ -3169,17 +3398,21 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
+    <row r="166" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" s="12"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
     </row>
     <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
@@ -3265,21 +3498,17 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C174" s="12"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="10"/>
+    <row r="174" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
@@ -3293,17 +3522,21 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
+    <row r="176" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="10"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
@@ -3389,21 +3622,17 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C184" s="12"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="10"/>
-      <c r="I184" s="10"/>
-      <c r="J184" s="10"/>
+    <row r="184" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
@@ -3417,17 +3646,21 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5"/>
+    <row r="186" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" s="12"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
@@ -3513,21 +3746,17 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C194" s="12"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
+    <row r="194" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="9"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
@@ -3541,17 +3770,21 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
     </row>
-    <row r="196" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
+    <row r="196" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C196" s="12"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
@@ -3637,126 +3870,328 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
+    <row r="204" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="9"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+    </row>
+    <row r="205" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="9"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+    </row>
+    <row r="206" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C206" s="12"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10"/>
+    </row>
+    <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C207" s="14"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" s="14"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C209" s="14"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C210" s="14"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+    </row>
+    <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C211" s="14"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C212" s="14"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C213" s="14"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+    </row>
+    <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C214" s="14"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="9"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:C99 C104:C113">
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="NO COMENZADO">
+  <conditionalFormatting sqref="C8:C69 C106:C115 C72:C99">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C114:C123">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C114)))</formula>
+  <conditionalFormatting sqref="C116:C125">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C114)))</formula>
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C114)))</formula>
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C116)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124:C133">
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C124)))</formula>
+  <conditionalFormatting sqref="C126:C135">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C124)))</formula>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C124)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C126)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C134:C143">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C134)))</formula>
+  <conditionalFormatting sqref="C136:C145">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C134)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C134)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C136)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C144:C153">
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C144)))</formula>
+  <conditionalFormatting sqref="C146:C155">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C144)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C144)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C146)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C154:C163">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C154)))</formula>
+  <conditionalFormatting sqref="C156:C165">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C154)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C154)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C164:C173">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C164)))</formula>
+  <conditionalFormatting sqref="C166:C175">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C164)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C164)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C166)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174:C183">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C174)))</formula>
+  <conditionalFormatting sqref="C176:C185">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C174)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C174)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C176)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C184:C193">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C184)))</formula>
+  <conditionalFormatting sqref="C186:C195">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C184)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C184)))</formula>
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C186)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C194:C203">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C194)))</formula>
+  <conditionalFormatting sqref="C196:C205">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C194)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C194)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C196)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100:C103">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
+  <conditionalFormatting sqref="C100:C105">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C100)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C71">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206:C215">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C206)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
+++ b/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -268,9 +268,6 @@
     <t>Gestión de Usuarios y Perfiles</t>
   </si>
   <si>
-    <t>l de usuario.</t>
-  </si>
-  <si>
     <t>20.1 Registrar Perfiles.</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>Encuestas</t>
+  </si>
+  <si>
+    <t>Generar reporte estadísticos de desempeño de alumnos en diferentes materias en el período respecto a años anteriores.</t>
   </si>
 </sst>
 </file>
@@ -523,56 +523,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -1145,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1169,7 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1225,7 +1183,7 @@
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1384,7 +1342,7 @@
       <c r="A16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="13"/>
@@ -1400,7 +1358,7 @@
       <c r="A17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="14"/>
@@ -1416,7 +1374,7 @@
       <c r="A18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="14"/>
@@ -1432,7 +1390,7 @@
       <c r="A19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="14"/>
@@ -1448,7 +1406,7 @@
       <c r="A20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="13"/>
@@ -1464,7 +1422,7 @@
       <c r="A21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="14"/>
@@ -1516,10 +1474,10 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="5"/>
@@ -1532,10 +1490,10 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="16"/>
@@ -1671,8 +1629,12 @@
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="C37" s="14"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1734,10 +1696,10 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="5"/>
@@ -1750,10 +1712,10 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="5"/>
@@ -1766,10 +1728,10 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="5"/>
@@ -1782,10 +1744,10 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="5"/>
@@ -1798,10 +1760,10 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="5"/>
@@ -1814,10 +1776,10 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="5"/>
@@ -3137,7 +3099,7 @@
         <v>76</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="5"/>
@@ -3153,7 +3115,7 @@
         <v>76</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C148" s="14"/>
       <c r="D148" s="5"/>
@@ -3169,7 +3131,7 @@
         <v>76</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C149" s="14"/>
       <c r="D149" s="5"/>
@@ -3185,7 +3147,7 @@
         <v>76</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C150" s="14"/>
       <c r="D150" s="5"/>
@@ -3201,7 +3163,7 @@
         <v>76</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C151" s="14"/>
       <c r="D151" s="5"/>
@@ -3239,9 +3201,7 @@
     <row r="154" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
-      <c r="C154" s="14" t="s">
-        <v>77</v>
-      </c>
+      <c r="C154" s="14"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -3283,7 +3243,7 @@
         <v>76</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C157" s="14"/>
       <c r="D157" s="5"/>
@@ -3299,7 +3259,7 @@
         <v>76</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C158" s="14"/>
       <c r="D158" s="5"/>
@@ -3315,7 +3275,7 @@
         <v>76</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C159" s="14"/>
       <c r="D159" s="5"/>
@@ -3899,7 +3859,7 @@
         <v>31</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C206" s="12"/>
       <c r="D206" s="10"/>
@@ -3912,10 +3872,10 @@
     </row>
     <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="C207" s="14"/>
       <c r="D207" s="5"/>
@@ -3928,10 +3888,10 @@
     </row>
     <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C208" s="14"/>
       <c r="D208" s="5"/>
@@ -3944,10 +3904,10 @@
     </row>
     <row r="209" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C209" s="14"/>
       <c r="D209" s="5"/>
@@ -3960,10 +3920,10 @@
     </row>
     <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C210" s="14"/>
       <c r="D210" s="5"/>
@@ -3976,10 +3936,10 @@
     </row>
     <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C211" s="14"/>
       <c r="D211" s="5"/>
@@ -3992,10 +3952,10 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C212" s="14"/>
       <c r="D212" s="5"/>
@@ -4008,10 +3968,10 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C213" s="14"/>
       <c r="D213" s="5"/>
@@ -4024,10 +3984,10 @@
     </row>
     <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C214" s="14"/>
       <c r="D214" s="5"/>
@@ -4052,145 +4012,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:C69 C106:C115 C72:C99">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C125">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126:C135">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136:C145">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C155">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:C165">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166:C175">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176:C185">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186:C195">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C196:C205">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:C105">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C71">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C206:C215">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C206)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
+++ b/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -211,9 +211,6 @@
     <t>15.9 Generar reporte estadístico de uso sobre la cantidad de accesos a la autogestión por mes.</t>
   </si>
   <si>
-    <t xml:space="preserve">15.10 Generar reporte estadístico sobre las encuestas de los alumnos y de los padres. </t>
-  </si>
-  <si>
     <t>11.1 Generar mensaje.</t>
   </si>
   <si>
@@ -340,25 +337,34 @@
     <t>7.1 Crear encuestas parametrizables de alumnos hacia docentes.</t>
   </si>
   <si>
-    <t>7.2 Crear encuestas parametrizables de padres hacia la institución.</t>
-  </si>
-  <si>
-    <t>7.3 Registrar escala de evaluación.</t>
-  </si>
-  <si>
-    <t>7.4 Actualizar encuestas de alumnos hacia docentes.</t>
-  </si>
-  <si>
-    <t>7.5 Actualizar encuestas de padres hacia la institución.</t>
-  </si>
-  <si>
-    <t>7.6 Completar Encuesta</t>
-  </si>
-  <si>
     <t>Encuestas</t>
   </si>
   <si>
     <t>Generar reporte estadísticos de desempeño de alumnos en diferentes materias en el período respecto a años anteriores.</t>
+  </si>
+  <si>
+    <t>7.2 Registrar escala de evaluación.</t>
+  </si>
+  <si>
+    <t>7.3 Actualizar encuestas de alumnos hacia docentes.</t>
+  </si>
+  <si>
+    <t>7.4 Completar Encuesta</t>
+  </si>
+  <si>
+    <t>8.1 Crear encuestas parametrizables de padres hacia la institución.</t>
+  </si>
+  <si>
+    <t>8.2 Registrar escala de evaluación.</t>
+  </si>
+  <si>
+    <t>8.3 Actualizar encuestas de padres hacia la institución.</t>
+  </si>
+  <si>
+    <t>8.4 Completar Encuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1 Generar reporte estadístico sobre las encuestas de los alumnos y de los padres. </t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1103,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1259,7 @@
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1183,7 +1273,7 @@
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1258,10 +1348,10 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
@@ -1274,10 +1364,10 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="16"/>
@@ -1340,10 +1430,10 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="15"/>
@@ -1356,10 +1446,10 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="5"/>
@@ -1372,10 +1462,10 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="5"/>
@@ -1388,10 +1478,10 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="5"/>
@@ -1404,10 +1494,10 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="5"/>
@@ -1420,10 +1510,10 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="5"/>
@@ -1474,10 +1564,10 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="5"/>
@@ -1490,10 +1580,10 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="16"/>
@@ -1633,7 +1723,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="5"/>
@@ -1696,10 +1786,10 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="5"/>
@@ -1712,10 +1802,10 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="5"/>
@@ -1728,10 +1818,10 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="5"/>
@@ -1744,10 +1834,10 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="5"/>
@@ -1759,12 +1849,8 @@
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="14"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1775,12 +1861,8 @@
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="14"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1805,8 +1887,12 @@
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="C49" s="14"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1817,8 +1903,12 @@
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C50" s="14"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1829,8 +1919,12 @@
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="C51" s="14"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1841,8 +1935,12 @@
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="C52" s="14"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1891,8 +1989,12 @@
       <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="C56" s="14"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1954,10 +2056,10 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="5"/>
@@ -1970,10 +2072,10 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="5"/>
@@ -2036,10 +2138,10 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="5"/>
@@ -2052,10 +2154,10 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="5"/>
@@ -2068,10 +2170,10 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="5"/>
@@ -2181,7 +2283,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="5"/>
@@ -2559,12 +2661,8 @@
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="14"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -3096,10 +3194,10 @@
     </row>
     <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="5"/>
@@ -3112,10 +3210,10 @@
     </row>
     <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C148" s="14"/>
       <c r="D148" s="5"/>
@@ -3128,10 +3226,10 @@
     </row>
     <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C149" s="14"/>
       <c r="D149" s="5"/>
@@ -3144,10 +3242,10 @@
     </row>
     <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C150" s="14"/>
       <c r="D150" s="5"/>
@@ -3160,10 +3258,10 @@
     </row>
     <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C151" s="14"/>
       <c r="D151" s="5"/>
@@ -3240,10 +3338,10 @@
     </row>
     <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C157" s="14"/>
       <c r="D157" s="5"/>
@@ -3256,10 +3354,10 @@
     </row>
     <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C158" s="14"/>
       <c r="D158" s="5"/>
@@ -3272,10 +3370,10 @@
     </row>
     <row r="159" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C159" s="14"/>
       <c r="D159" s="5"/>
@@ -3859,7 +3957,7 @@
         <v>31</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C206" s="12"/>
       <c r="D206" s="10"/>
@@ -3872,10 +3970,10 @@
     </row>
     <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="C207" s="14"/>
       <c r="D207" s="5"/>
@@ -3888,10 +3986,10 @@
     </row>
     <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C208" s="14"/>
       <c r="D208" s="5"/>
@@ -3904,10 +4002,10 @@
     </row>
     <row r="209" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C209" s="14"/>
       <c r="D209" s="5"/>
@@ -3920,10 +4018,10 @@
     </row>
     <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C210" s="14"/>
       <c r="D210" s="5"/>
@@ -3936,10 +4034,10 @@
     </row>
     <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C211" s="14"/>
       <c r="D211" s="5"/>
@@ -3952,10 +4050,10 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C212" s="14"/>
       <c r="D212" s="5"/>
@@ -3968,10 +4066,10 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C213" s="14"/>
       <c r="D213" s="5"/>
@@ -3984,10 +4082,10 @@
     </row>
     <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C214" s="14"/>
       <c r="D214" s="5"/>
@@ -4011,147 +4109,169 @@
       <c r="J215" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:C69 C106:C115 C72:C99">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="NO COMENZADO">
+  <conditionalFormatting sqref="C8:C45 C106:C115 C72:C99 C48:C55 C57:C69">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C125">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126:C135">
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136:C145">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C155">
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:C165">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166:C175">
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176:C185">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186:C195">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C196:C205">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:C105">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C71">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C206:C215">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C206)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
+++ b/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="111">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.1 Generar reporte estadístico sobre las encuestas de los alumnos y de los padres. </t>
+  </si>
+  <si>
+    <t>Web</t>
   </si>
 </sst>
 </file>
@@ -536,49 +539,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -1193,8 +1154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1219,9 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>94</v>
       </c>
@@ -1271,7 +1235,9 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>95</v>
       </c>
@@ -2811,7 +2777,9 @@
       <c r="J116" s="10"/>
     </row>
     <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
+      <c r="A117" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B117" s="9" t="s">
         <v>38</v>
       </c>
@@ -2825,7 +2793,9 @@
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B118" s="9" t="s">
         <v>39</v>
       </c>
@@ -2839,7 +2809,9 @@
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B119" s="9" t="s">
         <v>41</v>
       </c>
@@ -2939,7 +2911,9 @@
       <c r="J126" s="10"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
+      <c r="A127" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B127" s="9" t="s">
         <v>40</v>
       </c>
@@ -3063,7 +3037,9 @@
       <c r="J136" s="10"/>
     </row>
     <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
+      <c r="A137" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B137" s="9" t="s">
         <v>42</v>
       </c>
@@ -3077,7 +3053,9 @@
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
+      <c r="A138" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B138" s="17" t="s">
         <v>43</v>
       </c>
@@ -3091,7 +3069,9 @@
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
+      <c r="A139" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B139" s="9" t="s">
         <v>47</v>
       </c>
@@ -4110,167 +4090,167 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:C45 C106:C115 C72:C99 C48:C55 C57:C69">
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C125">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126:C135">
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136:C145">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C155">
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:C165">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166:C175">
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176:C185">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186:C195">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C196:C205">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C196)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:C105">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C71">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C206:C215">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C56)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
+++ b/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
@@ -26,7 +26,7 @@
     <definedName name="_Toc220775286" localSheetId="0">Sheet1!$B$80</definedName>
     <definedName name="_Toc220775287" localSheetId="0">Sheet1!$B$90</definedName>
     <definedName name="_Toc220775288" localSheetId="0">Sheet1!$B$95</definedName>
-    <definedName name="_Toc220775289" localSheetId="0">Sheet1!$B$106</definedName>
+    <definedName name="_Toc220775289" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="_Toc290939942" localSheetId="0">Sheet1!$A$2</definedName>
     <definedName name="_Toc439994688" localSheetId="0">Sheet1!$B$2</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -115,60 +115,12 @@
     <t>15- Generar reportes estratégicos para la dirección</t>
   </si>
   <si>
-    <t>16- Generar reportes estratégicos para el rector</t>
-  </si>
-  <si>
-    <t>17- Registrar plan anual de clases</t>
-  </si>
-  <si>
-    <t>18- Registrar temas desarrollados en clases</t>
-  </si>
-  <si>
-    <t>19- Gestionar temas desarrollados en clases versus temas planificados</t>
-  </si>
-  <si>
-    <t>20- Seguridad</t>
-  </si>
-  <si>
     <t>Requisitos NO Funcionales</t>
   </si>
   <si>
     <t>Resultado</t>
   </si>
   <si>
-    <t>21- Auditoria</t>
-  </si>
-  <si>
-    <t>22- Disponibilidad</t>
-  </si>
-  <si>
-    <t>23- Escalabilidad</t>
-  </si>
-  <si>
-    <t>24- Plataforma</t>
-  </si>
-  <si>
-    <t>25- Control de foros de discusión</t>
-  </si>
-  <si>
-    <t>17.1 Registrar planificación de clases</t>
-  </si>
-  <si>
-    <t>17.2 Consultar Planificación</t>
-  </si>
-  <si>
-    <t>18.1 Registrar desarrollo real de clase.</t>
-  </si>
-  <si>
-    <t>17.3 Asignar fecha y hora de contenido</t>
-  </si>
-  <si>
-    <t>19.1 Emitir informe de advertencias sobre el desvío de lo estimado y lo real</t>
-  </si>
-  <si>
-    <t>19.2 Consultar tablero de control Docente: Representación gráfica del desvío de la planificación de clases</t>
-  </si>
-  <si>
     <t>12.1 Consultar tablero de control Docente: Representación gráfica del nivel de calificaciones de alumnos</t>
   </si>
   <si>
@@ -178,9 +130,6 @@
     <t>15.2 Consultar tablero de control Directivo: Representación gráfica del nivel de calificaciones de asignatura</t>
   </si>
   <si>
-    <t>19.3 Consultar tablero de control Directivo: Representación gráfica del desvío de la planificación de clases por curso</t>
-  </si>
-  <si>
     <t>1- Proveer una página web de la institución</t>
   </si>
   <si>
@@ -265,60 +214,9 @@
     <t>Gestión de Usuarios y Perfiles</t>
   </si>
   <si>
-    <t>20.1 Registrar Perfiles.</t>
-  </si>
-  <si>
-    <t>20.2 Registrar usuario.</t>
-  </si>
-  <si>
-    <t>20.3 Asignar perfil.</t>
-  </si>
-  <si>
-    <t>20.4 Actualizar usuario.</t>
-  </si>
-  <si>
-    <t>20.5 Registrar email</t>
-  </si>
-  <si>
-    <t>21.1 Registro de logueo E/S al sistema.</t>
-  </si>
-  <si>
-    <t>21.3 Generar estadística de utilización de sistema según perfiles.</t>
-  </si>
-  <si>
-    <t>21.2 Generar estadística de acceso al sistema.</t>
-  </si>
-  <si>
-    <t>26- Conectividad</t>
-  </si>
-  <si>
     <t>Importación de datos</t>
   </si>
   <si>
-    <t>26.1 Registrar escala de calificaciones.</t>
-  </si>
-  <si>
-    <t>26.2 Registrar Alumnos.</t>
-  </si>
-  <si>
-    <t>26.3 Registrar personal de la institución.</t>
-  </si>
-  <si>
-    <t>26,4 Registrar asignaturas.</t>
-  </si>
-  <si>
-    <t>26.5 Registrar sanciones.</t>
-  </si>
-  <si>
-    <t>26.6 Registrar calificaciones.</t>
-  </si>
-  <si>
-    <t>26.7 Registrar inasistencias de alumnos.</t>
-  </si>
-  <si>
-    <t>26.8 Registrar inasistencias de profesores.</t>
-  </si>
-  <si>
     <t>1.1 Registrar novedades institucionales.</t>
   </si>
   <si>
@@ -368,6 +266,105 @@
   </si>
   <si>
     <t>Web</t>
+  </si>
+  <si>
+    <t>16- Registrar plan anual de clases</t>
+  </si>
+  <si>
+    <t>17- Registrar temas desarrollados en clases</t>
+  </si>
+  <si>
+    <t>16.1 Registrar planificación de clases</t>
+  </si>
+  <si>
+    <t>16.2 Consultar Planificación</t>
+  </si>
+  <si>
+    <t>16.3 Asignar fecha y hora de contenido</t>
+  </si>
+  <si>
+    <t>17.1 Registrar desarrollo real de clase.</t>
+  </si>
+  <si>
+    <t>18- Gestionar temas desarrollados en clases versus temas planificados</t>
+  </si>
+  <si>
+    <t>18.1 Emitir informe de advertencias sobre el desvío de lo estimado y lo real</t>
+  </si>
+  <si>
+    <t>18.2 Consultar tablero de control Docente: Representación gráfica del desvío de la planificación de clases</t>
+  </si>
+  <si>
+    <t>18.3 Consultar tablero de control Directivo: Representación gráfica del desvío de la planificación de clases por curso</t>
+  </si>
+  <si>
+    <t>19- Seguridad</t>
+  </si>
+  <si>
+    <t>19.1 Registrar Perfiles.</t>
+  </si>
+  <si>
+    <t>19.2 Registrar usuario.</t>
+  </si>
+  <si>
+    <t>19.3 Asignar perfil.</t>
+  </si>
+  <si>
+    <t>19.4 Actualizar usuario.</t>
+  </si>
+  <si>
+    <t>19.5 Registrar email</t>
+  </si>
+  <si>
+    <t>20- Auditoria</t>
+  </si>
+  <si>
+    <t>20.1 Registro de logueo E/S al sistema.</t>
+  </si>
+  <si>
+    <t>20.2 Generar estadística de acceso al sistema.</t>
+  </si>
+  <si>
+    <t>20.3 Generar estadística de utilización de sistema según perfiles.</t>
+  </si>
+  <si>
+    <t>21- Disponibilidad</t>
+  </si>
+  <si>
+    <t>22- Escalabilidad</t>
+  </si>
+  <si>
+    <t>23- Plataforma</t>
+  </si>
+  <si>
+    <t>24- Control de foros de discusión</t>
+  </si>
+  <si>
+    <t>25- Conectividad</t>
+  </si>
+  <si>
+    <t>25.1 Registrar escala de calificaciones.</t>
+  </si>
+  <si>
+    <t>25.2 Registrar Alumnos.</t>
+  </si>
+  <si>
+    <t>25.3 Registrar personal de la institución.</t>
+  </si>
+  <si>
+    <t>25.4 Registrar asignaturas.</t>
+  </si>
+  <si>
+    <t>25.5 Registrar sanciones.</t>
+  </si>
+  <si>
+    <t>25.6 Registrar calificaciones.</t>
+  </si>
+  <si>
+    <t>25.7 Registrar inasistencias de alumnos.</t>
+  </si>
+  <si>
+    <t>25.8 Registrar inasistencias de profesores.</t>
   </si>
 </sst>
 </file>
@@ -1152,11 +1149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J215"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,13 +1198,13 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="10"/>
@@ -1220,10 +1217,10 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1236,10 +1233,10 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1314,10 +1311,10 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
@@ -1330,10 +1327,10 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="16"/>
@@ -1396,10 +1393,10 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="15"/>
@@ -1412,10 +1409,10 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="5"/>
@@ -1428,10 +1425,10 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="5"/>
@@ -1444,10 +1441,10 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="5"/>
@@ -1460,10 +1457,10 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="5"/>
@@ -1476,10 +1473,10 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="5"/>
@@ -1530,10 +1527,10 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="5"/>
@@ -1546,10 +1543,10 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="16"/>
@@ -1686,10 +1683,10 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="5"/>
@@ -1752,10 +1749,10 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="5"/>
@@ -1768,10 +1765,10 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="5"/>
@@ -1784,10 +1781,10 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="5"/>
@@ -1800,10 +1797,10 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="5"/>
@@ -1854,10 +1851,10 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="5"/>
@@ -1870,10 +1867,10 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="5"/>
@@ -1886,10 +1883,10 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="5"/>
@@ -1902,10 +1899,10 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="5"/>
@@ -1956,10 +1953,10 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="5"/>
@@ -2022,10 +2019,10 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="5"/>
@@ -2038,10 +2035,10 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="5"/>
@@ -2104,10 +2101,10 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="5"/>
@@ -2120,10 +2117,10 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="5"/>
@@ -2136,10 +2133,10 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="5"/>
@@ -2217,7 +2214,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="5"/>
@@ -2230,10 +2227,10 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="16"/>
@@ -2246,10 +2243,10 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="5"/>
@@ -2487,7 +2484,7 @@
         <v>11</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="5"/>
@@ -2503,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="5"/>
@@ -2519,7 +2516,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="5"/>
@@ -2535,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="5"/>
@@ -2548,10 +2545,10 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="5"/>
@@ -2564,10 +2561,10 @@
     </row>
     <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="5"/>
@@ -2580,10 +2577,10 @@
     </row>
     <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="5"/>
@@ -2596,10 +2593,10 @@
     </row>
     <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C103" s="14"/>
       <c r="D103" s="5"/>
@@ -2612,10 +2609,10 @@
     </row>
     <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="5"/>
@@ -2639,9 +2636,11 @@
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
+      <c r="A106" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B106" s="4" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="10"/>
@@ -2653,8 +2652,12 @@
       <c r="J106" s="10"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C107" s="14"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -2665,8 +2668,12 @@
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="C108" s="14"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -2677,8 +2684,12 @@
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="C109" s="14"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -2761,11 +2772,9 @@
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="10"/>
@@ -2781,7 +2790,7 @@
         <v>11</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="5"/>
@@ -2793,12 +2802,8 @@
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="14"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -2809,12 +2814,8 @@
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="14"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -2899,7 +2900,7 @@
     <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="10"/>
@@ -2915,7 +2916,7 @@
         <v>11</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="5"/>
@@ -2927,8 +2928,12 @@
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
+      <c r="A128" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="C128" s="14"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -2939,8 +2944,12 @@
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
+      <c r="A129" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="C129" s="14"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -3023,9 +3032,11 @@
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
+      <c r="A136" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B136" s="4" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="10"/>
@@ -3038,10 +3049,10 @@
     </row>
     <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C137" s="14"/>
       <c r="D137" s="5"/>
@@ -3054,10 +3065,10 @@
     </row>
     <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="C138" s="14"/>
       <c r="D138" s="5"/>
@@ -3070,10 +3081,10 @@
     </row>
     <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C139" s="14"/>
       <c r="D139" s="5"/>
@@ -3085,8 +3096,12 @@
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
+      <c r="A140" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="C140" s="14"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -3097,8 +3112,12 @@
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
+      <c r="A141" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C141" s="14"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -3158,10 +3177,10 @@
     </row>
     <row r="146" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="10"/>
@@ -3174,10 +3193,10 @@
     </row>
     <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="5"/>
@@ -3190,10 +3209,10 @@
     </row>
     <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C148" s="14"/>
       <c r="D148" s="5"/>
@@ -3206,10 +3225,10 @@
     </row>
     <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C149" s="14"/>
       <c r="D149" s="5"/>
@@ -3221,12 +3240,8 @@
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
       <c r="C150" s="14"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -3237,12 +3252,8 @@
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="14"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -3302,10 +3313,10 @@
     </row>
     <row r="156" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C156" s="12"/>
       <c r="D156" s="10"/>
@@ -3317,12 +3328,8 @@
       <c r="J156" s="10"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
       <c r="C157" s="14"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -3333,12 +3340,8 @@
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="14"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -3349,12 +3352,8 @@
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
       <c r="C159" s="14"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -3438,10 +3437,10 @@
     </row>
     <row r="166" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C166" s="12"/>
       <c r="D166" s="10"/>
@@ -3562,10 +3561,10 @@
     </row>
     <row r="176" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C176" s="12"/>
       <c r="D176" s="10"/>
@@ -3686,10 +3685,10 @@
     </row>
     <row r="186" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C186" s="12"/>
       <c r="D186" s="10"/>
@@ -3810,10 +3809,10 @@
     </row>
     <row r="196" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C196" s="12"/>
       <c r="D196" s="10"/>
@@ -3825,8 +3824,12 @@
       <c r="J196" s="10"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
+      <c r="A197" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="C197" s="14"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -3837,8 +3840,12 @@
       <c r="J197" s="5"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
+      <c r="A198" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="C198" s="14"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -3849,8 +3856,12 @@
       <c r="J198" s="5"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="9"/>
-      <c r="B199" s="9"/>
+      <c r="A199" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="C199" s="14"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -3861,8 +3872,12 @@
       <c r="J199" s="5"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
+      <c r="A200" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="C200" s="14"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -3873,8 +3888,12 @@
       <c r="J200" s="5"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="9"/>
-      <c r="B201" s="9"/>
+      <c r="A201" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C201" s="14"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -3885,8 +3904,12 @@
       <c r="J201" s="5"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
+      <c r="A202" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="C202" s="14"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -3897,8 +3920,12 @@
       <c r="J202" s="5"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
+      <c r="A203" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="C203" s="14"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -3909,8 +3936,12 @@
       <c r="J203" s="5"/>
     </row>
     <row r="204" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
+      <c r="A204" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="C204" s="14"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -3932,164 +3963,8 @@
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
     </row>
-    <row r="206" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C206" s="12"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-      <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10"/>
-    </row>
-    <row r="207" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C207" s="14"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5"/>
-    </row>
-    <row r="208" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C208" s="14"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5"/>
-    </row>
-    <row r="209" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C209" s="14"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5"/>
-    </row>
-    <row r="210" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C210" s="14"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5"/>
-    </row>
-    <row r="211" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C211" s="14"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
-      <c r="J211" s="5"/>
-    </row>
-    <row r="212" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C212" s="14"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5"/>
-    </row>
-    <row r="213" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C213" s="14"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5"/>
-    </row>
-    <row r="214" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C214" s="14"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="5"/>
-    </row>
-    <row r="215" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="14"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
-      <c r="J215" s="5"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C8:C45 C106:C115 C72:C99 C48:C55 C57:C69">
+  <conditionalFormatting sqref="C8:C45 C72:C99 C48:C55 C57:C69">
     <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C8)))</formula>
     </cfRule>
@@ -4100,103 +3975,103 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C106:C115">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="NO COMENZADO">
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="EN PROGRESO">
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="COMPLETADO">
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C116:C125">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126:C135">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136:C145">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C155">
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:C165">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166:C175">
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C166)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C166)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176:C185">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C176)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C176)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186:C195">
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="NO COMENZADO">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="NO COMENZADO">
       <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="COMPLETADO">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="COMPLETADO">
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C186)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196:C205">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C196)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:C105">
@@ -4221,15 +4096,15 @@
       <formula>NOT(ISERROR(SEARCH("COMPLETADO",C70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C206:C215">
+  <conditionalFormatting sqref="C196:C205">
     <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="NO COMENZADO">
-      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C206)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO COMENZADO",C196)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="EN PROGRESO">
-      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C206)))</formula>
+      <formula>NOT(ISERROR(SEARCH("EN PROGRESO",C196)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLETADO">
-      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C206)))</formula>
+      <formula>NOT(ISERROR(SEARCH("COMPLETADO",C196)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">

--- a/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
+++ b/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="111">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Encuestas</t>
   </si>
   <si>
-    <t>Generar reporte estadísticos de desempeño de alumnos en diferentes materias en el período respecto a años anteriores.</t>
-  </si>
-  <si>
     <t>7.2 Registrar escala de evaluación.</t>
   </si>
   <si>
@@ -365,6 +362,12 @@
   </si>
   <si>
     <t>25.8 Registrar inasistencias de profesores.</t>
+  </si>
+  <si>
+    <t>5.1 Generar reporte de notas de cada una de las materias en los que va del año de un alumno.</t>
+  </si>
+  <si>
+    <t>6.1 Generar reporte estadísticos de desempeño de alumnos en diferentes materias en el período respecto a años anteriores.</t>
   </si>
 </sst>
 </file>
@@ -1152,14 +1155,14 @@
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B205" sqref="B205"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="132.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="69.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1217,7 +1220,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>60</v>
@@ -1233,7 +1236,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>61</v>
@@ -1608,8 +1611,12 @@
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1686,7 +1693,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="5"/>
@@ -1768,7 +1775,7 @@
         <v>66</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="5"/>
@@ -1784,7 +1791,7 @@
         <v>66</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="5"/>
@@ -1800,7 +1807,7 @@
         <v>66</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="5"/>
@@ -1854,7 +1861,7 @@
         <v>66</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="5"/>
@@ -1870,7 +1877,7 @@
         <v>66</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="5"/>
@@ -1886,7 +1893,7 @@
         <v>66</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="5"/>
@@ -1902,7 +1909,7 @@
         <v>66</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="5"/>
@@ -1956,7 +1963,7 @@
         <v>32</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="5"/>
@@ -2640,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="10"/>
@@ -2656,7 +2663,7 @@
         <v>11</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C107" s="14"/>
       <c r="D107" s="5"/>
@@ -2672,7 +2679,7 @@
         <v>11</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="5"/>
@@ -2688,7 +2695,7 @@
         <v>11</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="5"/>
@@ -2774,7 +2781,7 @@
     <row r="116" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C116" s="12"/>
       <c r="D116" s="10"/>
@@ -2790,7 +2797,7 @@
         <v>11</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="5"/>
@@ -2900,7 +2907,7 @@
     <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C126" s="12"/>
       <c r="D126" s="10"/>
@@ -2916,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="5"/>
@@ -2932,7 +2939,7 @@
         <v>11</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="5"/>
@@ -2948,7 +2955,7 @@
         <v>11</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="5"/>
@@ -3036,7 +3043,7 @@
         <v>26</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C136" s="12"/>
       <c r="D136" s="10"/>
@@ -3052,7 +3059,7 @@
         <v>58</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C137" s="14"/>
       <c r="D137" s="5"/>
@@ -3068,7 +3075,7 @@
         <v>58</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C138" s="14"/>
       <c r="D138" s="5"/>
@@ -3084,7 +3091,7 @@
         <v>58</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C139" s="14"/>
       <c r="D139" s="5"/>
@@ -3100,7 +3107,7 @@
         <v>58</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="14"/>
       <c r="D140" s="5"/>
@@ -3116,7 +3123,7 @@
         <v>58</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C141" s="14"/>
       <c r="D141" s="5"/>
@@ -3180,7 +3187,7 @@
         <v>26</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="10"/>
@@ -3196,7 +3203,7 @@
         <v>58</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="5"/>
@@ -3212,7 +3219,7 @@
         <v>58</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C148" s="14"/>
       <c r="D148" s="5"/>
@@ -3228,7 +3235,7 @@
         <v>58</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C149" s="14"/>
       <c r="D149" s="5"/>
@@ -3316,7 +3323,7 @@
         <v>26</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C156" s="12"/>
       <c r="D156" s="10"/>
@@ -3440,7 +3447,7 @@
         <v>26</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C166" s="12"/>
       <c r="D166" s="10"/>
@@ -3564,7 +3571,7 @@
         <v>26</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C176" s="12"/>
       <c r="D176" s="10"/>
@@ -3688,7 +3695,7 @@
         <v>26</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C186" s="12"/>
       <c r="D186" s="10"/>
@@ -3812,7 +3819,7 @@
         <v>26</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C196" s="12"/>
       <c r="D196" s="10"/>
@@ -3828,7 +3835,7 @@
         <v>59</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C197" s="14"/>
       <c r="D197" s="5"/>
@@ -3844,7 +3851,7 @@
         <v>59</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C198" s="14"/>
       <c r="D198" s="5"/>
@@ -3860,7 +3867,7 @@
         <v>59</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C199" s="14"/>
       <c r="D199" s="5"/>
@@ -3876,7 +3883,7 @@
         <v>59</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C200" s="14"/>
       <c r="D200" s="5"/>
@@ -3892,7 +3899,7 @@
         <v>59</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C201" s="14"/>
       <c r="D201" s="5"/>
@@ -3908,7 +3915,7 @@
         <v>59</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C202" s="14"/>
       <c r="D202" s="5"/>
@@ -3924,7 +3931,7 @@
         <v>59</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C203" s="14"/>
       <c r="D203" s="5"/>
@@ -3940,7 +3947,7 @@
         <v>59</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C204" s="14"/>
       <c r="D204" s="5"/>

--- a/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
+++ b/Docs/01-Relevamiento Inicial/Temporales/Proyecto_Final_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
   <si>
     <t>COMPLETADO</t>
   </si>
@@ -340,34 +340,55 @@
     <t>25- Conectividad</t>
   </si>
   <si>
-    <t>25.1 Registrar escala de calificaciones.</t>
-  </si>
-  <si>
-    <t>25.2 Registrar Alumnos.</t>
-  </si>
-  <si>
-    <t>25.3 Registrar personal de la institución.</t>
-  </si>
-  <si>
-    <t>25.4 Registrar asignaturas.</t>
-  </si>
-  <si>
-    <t>25.5 Registrar sanciones.</t>
-  </si>
-  <si>
-    <t>25.6 Registrar calificaciones.</t>
-  </si>
-  <si>
-    <t>25.7 Registrar inasistencias de alumnos.</t>
-  </si>
-  <si>
-    <t>25.8 Registrar inasistencias de profesores.</t>
-  </si>
-  <si>
     <t>5.1 Generar reporte de notas de cada una de las materias en los que va del año de un alumno.</t>
   </si>
   <si>
     <t>6.1 Generar reporte estadísticos de desempeño de alumnos en diferentes materias en el período respecto a años anteriores.</t>
+  </si>
+  <si>
+    <t>25.1 Obtener escala de calificaciones.</t>
+  </si>
+  <si>
+    <t>25.2 Obtener Alumnos.</t>
+  </si>
+  <si>
+    <t>25.3 Obtener personal de la institución.</t>
+  </si>
+  <si>
+    <t>25.4 Obtener asignaturas.</t>
+  </si>
+  <si>
+    <t>25.5 Obtener sanciones.</t>
+  </si>
+  <si>
+    <t>25.6 Obtener calificaciones.</t>
+  </si>
+  <si>
+    <t>25.7 Obtener inasistencias de alumnos.</t>
+  </si>
+  <si>
+    <t>25.8 Obtener inasistencias de profesores.</t>
+  </si>
+  <si>
+    <t>21.1 Mantener el sistema disponible en un 97% de lunes a viernes 8 a 18 hs.</t>
+  </si>
+  <si>
+    <t>23.1 Mantener independencia de los motores de bases de datos</t>
+  </si>
+  <si>
+    <t>22.1 Permitir la integración de nuevas funcionalidades.</t>
+  </si>
+  <si>
+    <t>24.1 Registrar administrador de foro.</t>
+  </si>
+  <si>
+    <t>24.2 Modificar administrador de foro.</t>
+  </si>
+  <si>
+    <t>24.3 Eliminar mensaje en foro.</t>
+  </si>
+  <si>
+    <t>1.3 Permitir el logueo del usuario al sistema.</t>
   </si>
 </sst>
 </file>
@@ -1155,8 +1176,8 @@
   <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B197" sqref="B197"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1273,9 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1615,7 +1638,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="5"/>
@@ -1693,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="5"/>
@@ -3336,7 +3359,9 @@
     </row>
     <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
+      <c r="B157" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="C157" s="14"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -3460,7 +3485,9 @@
     </row>
     <row r="167" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
+      <c r="B167" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="C167" s="14"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -3584,7 +3611,9 @@
     </row>
     <row r="177" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
+      <c r="B177" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="C177" s="14"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -3708,7 +3737,9 @@
     </row>
     <row r="187" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
+      <c r="B187" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="C187" s="14"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -3720,7 +3751,9 @@
     </row>
     <row r="188" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
+      <c r="B188" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="C188" s="14"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -3732,7 +3765,9 @@
     </row>
     <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
+      <c r="B189" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="C189" s="14"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -3835,7 +3870,7 @@
         <v>59</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C197" s="14"/>
       <c r="D197" s="5"/>
@@ -3851,7 +3886,7 @@
         <v>59</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C198" s="14"/>
       <c r="D198" s="5"/>
@@ -3867,7 +3902,7 @@
         <v>59</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C199" s="14"/>
       <c r="D199" s="5"/>
@@ -3883,7 +3918,7 @@
         <v>59</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C200" s="14"/>
       <c r="D200" s="5"/>
@@ -3899,7 +3934,7 @@
         <v>59</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C201" s="14"/>
       <c r="D201" s="5"/>
@@ -3915,7 +3950,7 @@
         <v>59</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C202" s="14"/>
       <c r="D202" s="5"/>
@@ -3931,7 +3966,7 @@
         <v>59</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C203" s="14"/>
       <c r="D203" s="5"/>
@@ -3947,7 +3982,7 @@
         <v>59</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C204" s="14"/>
       <c r="D204" s="5"/>
